--- a/biology/Zoologie/Bhawania/Bhawania.xlsx
+++ b/biology/Zoologie/Bhawania/Bhawania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhawania est un genre de vers marins polychètes de l'ordre des Phyllodocida et de la famille des Chrysopetalidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bhawania a été créé en 1861 par le naturaliste autrichien Ludwig Karl Schmarda (1819-1908) avec comme espèce type Bhawania myrialepis par monotypie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bhawania a été créé en 1861 par le naturaliste autrichien Ludwig Karl Schmarda (1819-1908) avec comme espèce type Bhawania myrialepis par monotypie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 décembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 décembre 2022) :
 Bhawania amboinensis Horst, 1917
 Bhawania bastidai Cruz-Gómez, 2021
 Bhawania brunnea Morgado &amp; Amaral, 1981
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ludwig K. Schmarda, « Neue Turbellarien, Rotatorien und Anneliden Beobachted und Gesammelt auf einer Reise um die Erdr 1853 bis 1857. Zweite Halfte », Neue wirbellose Thiere beobachtet und gesammelt auf einer Reise um die Erde 1853 bis 1857, Leipzig, Inconnu, vol. 2,‎ 1861, p. 1-164 (lire en ligne)</t>
         </is>
